--- a/Table_1.xlsx
+++ b/Table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budjavac\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3942191B-DB94-4FC7-97DE-460CD1BB21B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8030010B-B115-4B7F-86E8-49E189F7E4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="423" uniqueCount="228">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="634" uniqueCount="322">
   <si>
     <t>strain_name</t>
   </si>
@@ -709,6 +709,288 @@
   </si>
   <si>
     <t>logit(%GC)</t>
+  </si>
+  <si>
+    <t>Collection_date</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2009-04</t>
+  </si>
+  <si>
+    <t>2005-04</t>
+  </si>
+  <si>
+    <t>2007-07</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2009-07</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-06</t>
   </si>
 </sst>
 </file>
@@ -1549,18 +1831,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,2318 +1854,2954 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B2">
-        <v>2.6947321E-2</v>
+        <v>1.9946426999999999E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="B3">
-        <v>2.5836999999999999E-2</v>
+        <v>2.5132664999999998E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="B4">
-        <v>2.7045387000000001E-2</v>
+        <v>2.5782079999999999E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B5">
-        <v>2.7365448000000001E-2</v>
+        <v>2.5362454E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>2.7111056000000001E-2</v>
+        <v>2.5654151E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>2.7075604E-2</v>
+        <v>2.6330056000000001E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>2.6938779999999999E-2</v>
+        <v>2.4479745000000001E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>2.7242118999999999E-2</v>
+        <v>2.5697318E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B10">
-        <v>2.6955579E-2</v>
+        <v>2.3421953999999998E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>2.6571386999999998E-2</v>
+        <v>2.7519571999999999E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="B12">
-        <v>2.7068504E-2</v>
+        <v>2.124206E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="B13">
-        <v>2.6899453E-2</v>
+        <v>2.8944498999999999E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B14">
-        <v>2.6949095999999999E-2</v>
+        <v>2.1589765E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>2.7215158E-2</v>
+        <v>2.5726098999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B16">
-        <v>2.7323390999999999E-2</v>
+        <v>2.6440299E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>2.7588089999999999E-2</v>
+        <v>2.6068762999999998E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>2.6837715000000002E-2</v>
+        <v>2.5850062E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>2.6741794999999999E-2</v>
+        <v>2.5964615E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B20">
-        <v>2.6236296999999999E-2</v>
+        <v>2.1532756E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B21">
-        <v>2.7051114000000001E-2</v>
+        <v>2.1750806000000001E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="B22">
-        <v>2.7340007E-2</v>
+        <v>2.1256458999999998E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>2.7265679000000001E-2</v>
+        <v>2.5676930000000001E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>2.6906433E-2</v>
+        <v>2.5972282999999999E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>2.7720095E-2</v>
+        <v>2.5614385E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>2.6648983000000001E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>2.7363278000000001E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>2.5787621E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29">
+        <v>2.0440697000000001E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>2.1425217999999999E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31">
+        <v>2.1641575E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>2.6143742000000001E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B33">
         <v>2.6334496999999998E-2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>2.6287491E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>2.6212269E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>2.6364368999999999E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>2.6785551000000001E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>2.7645036000000001E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>2.6117318E-2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>2.5507477000000001E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>2.5783137000000001E-2</v>
+        <v>2.579412E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>2.5886525000000001E-2</v>
+        <v>2.5817911999999998E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>2.5615461999999999E-2</v>
+        <v>2.6041060000000001E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>2.5325901000000001E-2</v>
+        <v>2.6213154999999998E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>2.5040216000000001E-2</v>
+        <v>2.6178413000000001E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B39">
-        <v>2.5726098999999999E-2</v>
+        <v>2.5478379999999998E-2</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>2.5676930000000001E-2</v>
+        <v>2.6352047E-2</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>2.5972282999999999E-2</v>
+        <v>2.6132451000000001E-2</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>2.6708315E-2</v>
+        <v>2.6567489E-2</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B43">
-        <v>2.5614385E-2</v>
+        <v>2.6545906000000001E-2</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44">
+        <v>2.3706469000000001E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>2.5485338999999999E-2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>2.5697318E-2</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>2.5787621E-2</v>
+        <v>2.7874916E-2</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B47">
-        <v>2.7519571999999999E-2</v>
+        <v>2.7539667E-2</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <v>2.7637067000000001E-2</v>
+        <v>2.5983091999999999E-2</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>2.6440299E-2</v>
+        <v>2.6708315E-2</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>2.6143742000000001E-2</v>
+        <v>2.8703353000000001E-2</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>2.6132451000000001E-2</v>
+        <v>2.6486596000000001E-2</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B52">
-        <v>2.5850062E-2</v>
+        <v>2.7394207E-2</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>2.5817911999999998E-2</v>
+        <v>2.6668869000000001E-2</v>
       </c>
       <c r="C53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>2.6330056000000001E-2</v>
+        <v>2.7637067000000001E-2</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B55">
-        <v>2.6648983000000001E-2</v>
+        <v>2.7215158E-2</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>2.7363278000000001E-2</v>
+        <v>2.7265679000000001E-2</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="B57">
-        <v>2.6486596000000001E-2</v>
+        <v>2.0682111999999999E-2</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>2.6041060000000001E-2</v>
+        <v>2.7051114000000001E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>2.6213154999999998E-2</v>
+        <v>2.7340007E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>2.8703353000000001E-2</v>
+        <v>2.6117318E-2</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>2.7874916E-2</v>
+        <v>2.7323390999999999E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="B62">
-        <v>2.6068762999999998E-2</v>
+        <v>2.2820918999999999E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>2.6352047E-2</v>
+        <v>2.7720095E-2</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="B64">
-        <v>2.7539667E-2</v>
+        <v>2.2985727000000001E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="B65">
-        <v>2.579412E-2</v>
+        <v>2.1929512000000002E-2</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B66">
-        <v>2.7394207E-2</v>
+        <v>2.6741794999999999E-2</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>2.5964615E-2</v>
+        <v>2.7365448000000001E-2</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="B68">
-        <v>2.6545906000000001E-2</v>
+        <v>2.4082538000000001E-2</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>2.6567489E-2</v>
+        <v>2.6906433E-2</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>2.6668869000000001E-2</v>
+        <v>2.7588089999999999E-2</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="B71">
-        <v>2.5654151E-2</v>
+        <v>2.2701956999999998E-2</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72">
+        <v>2.0429158999999999E-2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>2.6899453E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74">
+        <v>2.6236296999999999E-2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75">
+        <v>2.1806485E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>2.6947321E-2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>2.6837715000000002E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78">
+        <v>2.6364368999999999E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79">
+        <v>2.2749533999999998E-2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>2.6949095999999999E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81">
+        <v>2.2440767E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82">
+        <v>2.1773728999999999E-2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83">
+        <v>2.5507477000000001E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>2.5615461999999999E-2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>2.7242118999999999E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>2.6938779999999999E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87">
+        <v>2.5783137000000001E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>2.5325901000000001E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>2.6955579E-2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>2.7111056000000001E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91">
+        <v>2.6785551000000001E-2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>2.7045387000000001E-2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>2.7068504E-2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94">
+        <v>2.7076313000000001E-2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95">
+        <v>2.2811240999999999E-2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96">
+        <v>2.2660026999999999E-2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>2.5836999999999999E-2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>2.6571386999999998E-2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>2.7645036000000001E-2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100">
+        <v>2.5040216000000001E-2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101">
+        <v>2.2211445999999999E-2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <v>2.6212269E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103">
+        <v>2.6287491E-2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>2.7075604E-2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105">
+        <v>2.5886525000000001E-2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106">
+        <v>2.097278E-2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107">
+        <v>2.1329422000000001E-2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108">
+        <v>2.2191300000000001E-2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109">
+        <v>2.1524294999999999E-2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110">
+        <v>2.0593917999999999E-2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D110" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111">
+        <v>2.2434145999999999E-2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112">
+        <v>2.1655408000000001E-2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113">
+        <v>2.1357457E-2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114">
+        <v>2.2167591E-2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115">
+        <v>2.1719113000000002E-2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116">
+        <v>2.1531991E-2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117">
+        <v>2.4153225E-2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118">
+        <v>2.1630289E-2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119">
+        <v>2.1640441E-2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120">
+        <v>2.0282791000000001E-2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>190</v>
+      </c>
+      <c r="D120" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121">
+        <v>2.1874787999999999E-2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122">
+        <v>2.1985629E-2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123">
+        <v>2.2267381999999999E-2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124">
+        <v>2.1299445E-2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125">
+        <v>2.1530863000000001E-2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126">
+        <v>2.2096181999999999E-2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127">
+        <v>2.1660115000000001E-2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128">
+        <v>2.1694883000000002E-2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129">
+        <v>2.1181922999999998E-2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130">
+        <v>2.1214507000000001E-2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131">
+        <v>2.7382465000000002E-2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132">
+        <v>2.2074E-2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133">
+        <v>2.1466418000000001E-2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134">
+        <v>2.6851139999999999E-2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>75</v>
       </c>
-      <c r="B72">
+      <c r="B135">
         <v>2.4686099999999999E-2</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C135" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73">
-        <v>2.7382465000000002E-2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>2.6851139999999999E-2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>2.7072481999999998E-2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>2.5478379999999998E-2</v>
-      </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77">
-        <v>2.6178413000000001E-2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78">
-        <v>2.5983091999999999E-2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
-        <v>2.7076313000000001E-2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>2.3312043000000001E-2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81">
-        <v>2.4425683E-2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>2.4872741E-2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83">
-        <v>2.3221865000000001E-2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84">
-        <v>2.3333185999999999E-2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85">
-        <v>2.2998876000000001E-2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86">
-        <v>2.3139692999999999E-2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87">
-        <v>2.374739E-2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88">
-        <v>2.3212199999999999E-2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89">
-        <v>2.3430276E-2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90">
-        <v>2.3291637E-2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91">
-        <v>2.3718065E-2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92">
-        <v>2.3327962000000001E-2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93">
-        <v>2.3109536E-2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94">
-        <v>2.3664911E-2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95">
-        <v>2.3823968000000001E-2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96">
-        <v>2.3433826000000001E-2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97">
-        <v>2.3324800999999999E-2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98">
-        <v>2.3204954E-2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99">
-        <v>2.3230225E-2</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100">
-        <v>2.3253276E-2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101">
-        <v>2.3310619000000001E-2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102">
-        <v>2.3308711999999999E-2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103">
-        <v>2.3299930999999999E-2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104">
-        <v>2.3401489000000001E-2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105">
-        <v>2.3245726000000001E-2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106">
-        <v>2.3210631999999998E-2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107">
-        <v>2.3526841E-2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108">
-        <v>2.3042581999999999E-2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109">
-        <v>2.3197735000000001E-2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110">
-        <v>2.3532734E-2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111">
-        <v>2.3846835E-2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112">
-        <v>2.4525186000000001E-2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113">
-        <v>2.3455983E-2</v>
-      </c>
-      <c r="C113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114">
-        <v>2.3173277999999999E-2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115">
-        <v>2.3615634E-2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116">
-        <v>2.3583303999999999E-2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117">
-        <v>2.2663948E-2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118">
-        <v>2.4273255000000001E-2</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119">
-        <v>2.3348633000000001E-2</v>
-      </c>
-      <c r="C119" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120">
-        <v>2.3452205E-2</v>
-      </c>
-      <c r="C120" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121">
-        <v>2.3657218000000001E-2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122">
-        <v>2.4256021999999999E-2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123">
-        <v>2.3999092999999999E-2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124">
-        <v>2.4589441E-2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125">
-        <v>2.3439906999999999E-2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126">
-        <v>2.3609557999999999E-2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>133</v>
-      </c>
-      <c r="B127">
-        <v>2.3649321000000001E-2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>134</v>
-      </c>
-      <c r="B128">
-        <v>2.3412427999999999E-2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>135</v>
-      </c>
-      <c r="B129">
-        <v>2.3846661000000002E-2</v>
-      </c>
-      <c r="C129" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130">
-        <v>2.4143726000000001E-2</v>
-      </c>
-      <c r="C130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131">
-        <v>2.3688154999999999E-2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B132">
-        <v>2.3263790999999999E-2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>139</v>
-      </c>
-      <c r="B133">
-        <v>2.5362454E-2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134">
-        <v>2.3421953999999998E-2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135">
-        <v>2.4479745000000001E-2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B136">
-        <v>2.3706469000000001E-2</v>
+        <v>2.1374102999999998E-2</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B137">
-        <v>1.9946426999999999E-2</v>
+        <v>2.1956130000000001E-2</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="D137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B138">
-        <v>2.1985629E-2</v>
+        <v>2.2032904999999998E-2</v>
       </c>
       <c r="C138" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B139">
-        <v>2.2074E-2</v>
+        <v>2.1042881999999999E-2</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D139" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B140">
-        <v>2.1299445E-2</v>
+        <v>2.1523758E-2</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B141">
-        <v>2.2191300000000001E-2</v>
+        <v>2.1712848999999999E-2</v>
       </c>
       <c r="C141" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B142">
-        <v>2.2434145999999999E-2</v>
+        <v>2.1737452000000001E-2</v>
       </c>
       <c r="C142" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B143">
-        <v>2.1640441E-2</v>
+        <v>2.1675706999999999E-2</v>
       </c>
       <c r="C143" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B144">
-        <v>2.1630289E-2</v>
+        <v>2.168001E-2</v>
       </c>
       <c r="C144" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B145">
-        <v>2.1531991E-2</v>
+        <v>2.7072481999999998E-2</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="D145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B146">
-        <v>2.2304979999999999E-2</v>
+        <v>2.1725230000000002E-2</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B147">
-        <v>2.1725230000000002E-2</v>
+        <v>2.1966223E-2</v>
       </c>
       <c r="C147" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B148">
-        <v>2.1523758E-2</v>
+        <v>2.1409529E-2</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B149">
-        <v>2.0811005E-2</v>
+        <v>2.1950401000000001E-2</v>
       </c>
       <c r="C149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B150">
-        <v>2.1329422000000001E-2</v>
+        <v>2.3660455E-2</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D150" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B151">
-        <v>2.1357457E-2</v>
+        <v>2.0811005E-2</v>
       </c>
       <c r="C151" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B152">
-        <v>2.1530863000000001E-2</v>
+        <v>2.2501769000000001E-2</v>
       </c>
       <c r="C152" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B153">
-        <v>2.1694883000000002E-2</v>
+        <v>2.2566284999999998E-2</v>
       </c>
       <c r="C153" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B154">
-        <v>2.1874787999999999E-2</v>
+        <v>2.2304979999999999E-2</v>
       </c>
       <c r="C154" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B155">
-        <v>2.1712848999999999E-2</v>
+        <v>2.2045944000000001E-2</v>
       </c>
       <c r="C155" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B156">
-        <v>2.1675706999999999E-2</v>
+        <v>2.1881167999999999E-2</v>
       </c>
       <c r="C156" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B157">
-        <v>2.1660115000000001E-2</v>
+        <v>2.2319624999999999E-2</v>
       </c>
       <c r="C157" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B158">
-        <v>2.2045944000000001E-2</v>
+        <v>2.2309336999999999E-2</v>
       </c>
       <c r="C158" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B159">
-        <v>2.1881167999999999E-2</v>
+        <v>2.3846835E-2</v>
       </c>
       <c r="C159" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D159" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="B160">
-        <v>2.2309336999999999E-2</v>
+        <v>2.3718065E-2</v>
       </c>
       <c r="C160" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D160" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B161">
-        <v>2.1214507000000001E-2</v>
+        <v>2.3823968000000001E-2</v>
       </c>
       <c r="C161" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D161" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B162">
-        <v>2.1737452000000001E-2</v>
+        <v>2.3173277999999999E-2</v>
       </c>
       <c r="C162" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D162" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="B163">
-        <v>2.168001E-2</v>
+        <v>2.3526841E-2</v>
       </c>
       <c r="C163" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B164">
-        <v>2.2096181999999999E-2</v>
+        <v>2.2663948E-2</v>
       </c>
       <c r="C164" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="B165">
-        <v>2.2032904999999998E-2</v>
+        <v>2.3310619000000001E-2</v>
       </c>
       <c r="C165" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="B166">
-        <v>2.2566284999999998E-2</v>
+        <v>2.2998876000000001E-2</v>
       </c>
       <c r="C166" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B167">
-        <v>2.1956130000000001E-2</v>
+        <v>2.3348633000000001E-2</v>
       </c>
       <c r="C167" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B168">
-        <v>2.1966223E-2</v>
+        <v>2.3439906999999999E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="B169">
-        <v>2.2167591E-2</v>
+        <v>2.3291637E-2</v>
       </c>
       <c r="C169" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D169" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="B170">
-        <v>2.2319624999999999E-2</v>
+        <v>2.3109536E-2</v>
       </c>
       <c r="C170" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B171">
-        <v>2.1950401000000001E-2</v>
+        <v>2.3139692999999999E-2</v>
       </c>
       <c r="C171" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D171" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="B172">
-        <v>2.2267381999999999E-2</v>
+        <v>2.3401489000000001E-2</v>
       </c>
       <c r="C172" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D172" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B173">
-        <v>2.1181922999999998E-2</v>
+        <v>2.3615634E-2</v>
       </c>
       <c r="C173" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D173" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="B174">
-        <v>2.1750806000000001E-2</v>
+        <v>2.3042581999999999E-2</v>
       </c>
       <c r="C174" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D174" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B175">
-        <v>2.1641575E-2</v>
+        <v>2.3197735000000001E-2</v>
       </c>
       <c r="C175" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D175" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B176">
-        <v>2.1532756E-2</v>
+        <v>2.3221865000000001E-2</v>
       </c>
       <c r="C176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D176" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="B177">
-        <v>2.1425217999999999E-2</v>
+        <v>2.3452205E-2</v>
       </c>
       <c r="C177" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D177" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="B178">
-        <v>2.1589765E-2</v>
+        <v>2.3532734E-2</v>
       </c>
       <c r="C178" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="B179">
-        <v>2.097278E-2</v>
+        <v>2.3245726000000001E-2</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="B180">
-        <v>2.1042881999999999E-2</v>
+        <v>2.3846661000000002E-2</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B181">
-        <v>2.1409529E-2</v>
+        <v>2.3333185999999999E-2</v>
       </c>
       <c r="C181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="B182">
-        <v>2.1374102999999998E-2</v>
+        <v>2.3299930999999999E-2</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D182" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B183">
-        <v>2.1466418000000001E-2</v>
+        <v>2.3433826000000001E-2</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D183" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="B184">
-        <v>2.1524294999999999E-2</v>
+        <v>2.3649321000000001E-2</v>
       </c>
       <c r="C184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D184" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="B185">
-        <v>2.1655408000000001E-2</v>
+        <v>2.3204954E-2</v>
       </c>
       <c r="C185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D185" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="B186">
-        <v>2.1719113000000002E-2</v>
+        <v>2.3230225E-2</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D186" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="B187">
-        <v>2.0593917999999999E-2</v>
+        <v>2.3253276E-2</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D187" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="B188">
-        <v>2.0282791000000001E-2</v>
+        <v>2.3210631999999998E-2</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D188" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B189">
-        <v>2.3660455E-2</v>
+        <v>2.3324800999999999E-2</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="B190">
-        <v>2.2501769000000001E-2</v>
+        <v>2.3312043000000001E-2</v>
       </c>
       <c r="C190" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D190" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B191">
-        <v>2.4153225E-2</v>
+        <v>2.3263790999999999E-2</v>
       </c>
       <c r="C191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D191" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="B192">
-        <v>2.2701956999999998E-2</v>
+        <v>2.4872741E-2</v>
       </c>
       <c r="C192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D192" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B193">
-        <v>2.2440767E-2</v>
+        <v>2.3583303999999999E-2</v>
       </c>
       <c r="C193" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D193" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="B194">
-        <v>2.2820918999999999E-2</v>
+        <v>2.3609557999999999E-2</v>
       </c>
       <c r="C194" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D194" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="B195">
-        <v>2.2811240999999999E-2</v>
+        <v>2.3308711999999999E-2</v>
       </c>
       <c r="C195" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D195" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="B196">
-        <v>2.2660026999999999E-2</v>
+        <v>2.3455983E-2</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D196" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="B197">
-        <v>2.2985727000000001E-2</v>
+        <v>2.3412427999999999E-2</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="B198">
-        <v>2.2749533999999998E-2</v>
+        <v>2.4273255000000001E-2</v>
       </c>
       <c r="C198" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D198" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="B199">
-        <v>2.1806485E-2</v>
+        <v>2.4143726000000001E-2</v>
       </c>
       <c r="C199" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D199" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="B200">
-        <v>2.2211445999999999E-2</v>
+        <v>2.3212199999999999E-2</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D200" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="B201">
-        <v>2.1773728999999999E-2</v>
+        <v>2.3430276E-2</v>
       </c>
       <c r="C201" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D201" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="B202">
-        <v>2.1929512000000002E-2</v>
+        <v>2.4425683E-2</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D202" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B203">
-        <v>2.124206E-2</v>
+        <v>2.4589441E-2</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D203" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="B204">
-        <v>2.0429158999999999E-2</v>
+        <v>2.3664911E-2</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D204" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="B205">
-        <v>2.1256458999999998E-2</v>
+        <v>2.3327962000000001E-2</v>
       </c>
       <c r="C205" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D205" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="B206">
-        <v>2.0440697000000001E-2</v>
+        <v>2.3657218000000001E-2</v>
       </c>
       <c r="C206" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D206" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="B207">
-        <v>2.0682111999999999E-2</v>
+        <v>2.3688154999999999E-2</v>
       </c>
       <c r="C207" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D207" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="B208">
-        <v>2.4082538000000001E-2</v>
+        <v>2.4256021999999999E-2</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D208" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="B209">
-        <v>2.8944498999999999E-2</v>
+        <v>2.374739E-2</v>
       </c>
       <c r="C209" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D209" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="B210">
-        <v>2.5132664999999998E-2</v>
+        <v>2.3999092999999999E-2</v>
       </c>
       <c r="C210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D210" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="B211">
-        <v>2.5782079999999999E-2</v>
+        <v>2.4525186000000001E-2</v>
       </c>
       <c r="C211" t="s">
-        <v>145</v>
+        <v>86</v>
+      </c>
+      <c r="D211" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C211">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Table_1.xlsx
+++ b/Table_1.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budjavac\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8030010B-B115-4B7F-86E8-49E189F7E4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FDD6193-E913-46BA-B2AB-AD8E76ABC718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="634" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="322">
   <si>
     <t>strain_name</t>
   </si>
@@ -996,7 +991,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,15 +1311,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -1332,8 +1327,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -1341,8 +1336,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -1350,12 +1345,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -1365,12 +1360,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1380,8 +1375,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1389,12 +1384,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1404,12 +1399,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -1419,8 +1414,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1535,7 +1530,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1688,25 +1683,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1714,25 +1709,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1745,21 +1740,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1773,7 +1768,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1785,32 +1780,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1830,7 +1825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
